--- a/Data_Model.xlsx
+++ b/Data_Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Vehicle_Id</t>
   </si>
   <si>
-    <t>Vehicle_</t>
-  </si>
-  <si>
     <t>ADMIN</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Maritial_Status</t>
+  </si>
+  <si>
+    <t>Vehicle_Registration_No</t>
   </si>
 </sst>
 </file>
@@ -469,21 +469,21 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -632,22 +632,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,16 +670,16 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -697,9 +697,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,18 +729,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
